--- a/scripts/results/[CF]GSBTesting.xlsx
+++ b/scripts/results/[CF]GSBTesting.xlsx
@@ -14,6 +14,12 @@
     <sheet name="run_3" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="run_4" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="aggregate" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="run_01" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="run_11" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="run_21" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="run_31" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="run_41" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="aggregate1" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,6 +437,2580 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>A_pre</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>A_rec</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.38743895</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5147058799999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.07481889</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.57142857</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.16872554</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.51162791</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.093297</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5555555599999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.09794911000000001</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.50381679</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.14618655</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.52083333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.13016297</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.51785714</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.03041966</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.52272727</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1302534</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.36814191</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.49138606</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.52272727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.27119267</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.57142857</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.20223066</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.52083333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.07609324000000001</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.50909091</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.22947914</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.50480769</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.26476864</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.50277778</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.06496782</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.50909091</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.21477892</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.52380952</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.04919373</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.52272727</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.50295546</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.51086957</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.14599654</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.21690162</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.50714286</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.08436679</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.51428571</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.07267229</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.51612903</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.07572321</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.50980392</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.39145217</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.51515152</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.19511298</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.54545455</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.18502923</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.50980392</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.12505367</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.51136364</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.2579348</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.2841522</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.50862069</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.12801812</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.51666667</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.04934723</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.50877193</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.18954169</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.51282051</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.03186636</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.53571429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.24089702</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5555555599999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.19431195</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.50510204</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.06073479</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.50943396</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.12636824</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.50308642</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.17509763</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.50342466</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.41859293</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.53333333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.26821255</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5106383</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.1191266</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.50510204</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.11477474</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.50357143</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.34362539</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.25932598</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.52777778</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.10269184</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.50833333</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.03659355</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.51666667</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.4279041</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.51388889</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.24397776</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.24239363</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.50207469</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.50187266</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.22918214</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5217391300000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.3963324</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.50806452</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.03521185</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.52083333</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.09556619</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.19331765</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.50980392</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.11968392</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.50526316</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.13473889</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.50344828</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.07979967</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5147058799999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.39592268</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.50714286</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.1612399</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.50347222</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.06195742</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.51282051</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.05108715</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.08412032</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5053191500000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.12306749</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.50793651</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.16150699</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.53571429</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.04275668</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.51111111</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.27211782</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.53333333</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.44072535</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.40407535</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.58333333</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.23160665</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.53846154</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.45379661</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.52777778</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.18369173</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.57142857</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.32718266</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.52380952</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.20941368</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.14036652</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5060975599999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.13170313</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.50649351</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.12245768</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.51162791</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.15417172</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5147058799999999</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.20959571</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.51785714</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.16344047</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.50806452</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.16154664</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.27148317</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.04816996</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.51612903</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.22105616</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5106383</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.06759348</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.51315789</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.16563536</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.53571429</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.0796819</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.10674325</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.51785714</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.34243045</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.50164474</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.29406779</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5046296300000001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.12755715</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.52777778</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.30767858</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.51162791</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.3144054</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.5555555599999999</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.28459609</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.54166667</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.21128465</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.54545455</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.13114033</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.53333333</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.60163433</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.29690653</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.54545455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>A_pre</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>A_rec</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.38743895</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5147058799999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.07481889</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.57142857</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.16872554</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.51162791</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.093297</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5555555599999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.09794911000000001</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.50381679</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.14618655</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.52083333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.13016297</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.51785714</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.03041966</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.52272727</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1302534</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.36814191</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.49138606</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.52272727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.27119267</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.57142857</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.20223066</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.52083333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.07609324000000001</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.50909091</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.22947914</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.50480769</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.26476864</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.50277778</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.06496782</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.50909091</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.21477892</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.52380952</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.04919373</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.52272727</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.50295546</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.51086957</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.14599654</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.21690162</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.50714286</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.08436679</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.51428571</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.07267229</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.51612903</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.07572321</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.50980392</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.39145217</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.51515152</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.19511298</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.54545455</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.18502923</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.50980392</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.12505367</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.51136364</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.2579348</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.2841522</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.50862069</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.12801812</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.51666667</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.04934723</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.50877193</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.18954169</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.51282051</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.03186636</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.53571429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.24089702</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5555555599999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.19431195</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.50510204</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.06073479</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.50943396</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.12636824</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.50308642</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.17509763</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.50342466</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.41859293</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.53333333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.26821255</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5106383</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.1191266</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.50510204</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.11477474</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.50357143</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.34362539</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.25932598</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.52777778</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.10269184</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.50833333</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.03659355</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.51666667</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.4279041</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.51388889</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.24397776</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.24239363</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.50207469</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.50187266</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.22918214</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5217391300000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.3963324</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.50806452</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.03521185</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.52083333</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.09556619</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.19331765</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.50980392</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.11968392</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.50526316</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.13473889</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.50344828</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.07979967</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5147058799999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.39592268</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.50714286</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.1612399</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.50347222</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.06195742</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.51282051</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.05108715</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.08412032</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5053191500000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.12306749</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.50793651</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.16150699</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.53571429</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.04275668</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.51111111</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.27211782</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.53333333</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.44072535</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.40407535</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.58333333</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.23160665</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.53846154</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.45379661</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.52777778</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.18369173</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.57142857</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.32718266</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.52380952</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.20941368</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.14036652</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5060975599999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.13170313</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.50649351</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.12245768</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.51162791</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.15417172</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5147058799999999</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.20959571</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.51785714</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.16344047</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.50806452</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.16154664</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.27148317</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.04816996</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.51612903</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.22105616</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5106383</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.06759348</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.51315789</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.16563536</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.53571429</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.0796819</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.10674325</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.51785714</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.34243045</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.50164474</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.29406779</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5046296300000001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.12755715</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.52777778</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.30767858</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.51162791</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.3144054</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.5555555599999999</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.28459609</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.54166667</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.21128465</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.54545455</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.13114033</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.53333333</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.60163433</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.29690653</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.54545455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>A_pre</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>A_rec</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.38743895</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5147058799999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.07481889</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.57142857</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.16872554</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.51162791</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.093297</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5555555599999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.09794911000000001</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.50381679</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.14618655</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.52083333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.13016297</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.51785714</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.03041966</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.52272727</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1302534</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.36814191</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.49138606</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.52272727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.27119267</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.57142857</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.20223066</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.52083333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.07609324000000001</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.50909091</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.22947914</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.50480769</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.26476864</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.50277778</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.06496782</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.50909091</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.21477892</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.52380952</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.04919373</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.52272727</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.50295546</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.51086957</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.14599654</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.21690162</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.50714286</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.08436679</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.51428571</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.07267229</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.51612903</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.07572321</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.50980392</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.39145217</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.51515152</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.19511298</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.54545455</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.18502923</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.50980392</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.12505367</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.51136364</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.2579348</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.2841522</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.50862069</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.12801812</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.51666667</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.04934723</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.50877193</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.18954169</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.51282051</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.03186636</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.53571429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.24089702</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5555555599999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.19431195</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.50510204</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.06073479</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.50943396</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.12636824</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.50308642</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.17509763</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.50342466</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.41859293</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.53333333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.26821255</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5106383</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.1191266</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.50510204</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.11477474</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.50357143</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.34362539</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.25932598</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.52777778</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.10269184</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.50833333</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.03659355</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.51666667</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.4279041</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.51388889</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.24397776</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.24239363</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.50207469</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.50187266</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.22918214</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5217391300000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.3963324</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.50806452</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.03521185</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.52083333</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.09556619</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.19331765</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.50980392</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.11968392</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.50526316</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.13473889</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.50344828</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.07979967</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5147058799999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.39592268</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.50714286</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.1612399</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.50347222</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.06195742</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.51282051</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.05108715</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.08412032</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5053191500000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.12306749</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.50793651</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.16150699</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.53571429</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.04275668</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.51111111</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.27211782</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.53333333</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.44072535</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.40407535</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.58333333</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.23160665</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.53846154</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.45379661</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.52777778</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.18369173</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.57142857</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.32718266</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.52380952</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.20941368</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.14036652</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5060975599999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.13170313</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.50649351</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.12245768</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.51162791</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.15417172</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5147058799999999</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.20959571</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.51785714</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.16344047</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.50806452</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.16154664</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.27148317</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.04816996</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.51612903</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.22105616</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5106383</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.06759348</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.51315789</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.16563536</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.53571429</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.0796819</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.10674325</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.51785714</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.34243045</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.50164474</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.29406779</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5046296300000001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.12755715</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.52777778</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.30767858</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.51162791</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.3144054</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.5555555599999999</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.28459609</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.54166667</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.21128465</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.54545455</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.13114033</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.53333333</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.60163433</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.29690653</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.54545455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>MAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>run_0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2014755822</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>run_1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2014755822</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>run_2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2014755822</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>run_3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2014755822</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>run_4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2014755822</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -4665,4 +7245,1666 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>A_pre</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>A_rec</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.38743895</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5147058799999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.07481889</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.57142857</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.16872554</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.51162791</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.093297</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5555555599999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.09794911000000001</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.50381679</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.14618655</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.52083333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.13016297</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.51785714</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.03041966</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.52272727</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1302534</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.36814191</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.49138606</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.52272727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.27119267</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.57142857</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.20223066</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.52083333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.07609324000000001</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.50909091</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.22947914</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.50480769</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.26476864</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.50277778</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.06496782</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.50909091</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.21477892</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.52380952</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.04919373</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.52272727</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.50295546</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.51086957</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.14599654</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.21690162</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.50714286</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.08436679</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.51428571</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.07267229</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.51612903</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.07572321</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.50980392</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.39145217</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.51515152</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.19511298</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.54545455</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.18502923</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.50980392</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.12505367</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.51136364</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.2579348</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.2841522</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.50862069</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.12801812</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.51666667</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.04934723</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.50877193</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.18954169</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.51282051</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.03186636</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.53571429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.24089702</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5555555599999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.19431195</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.50510204</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.06073479</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.50943396</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.12636824</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.50308642</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.17509763</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.50342466</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.41859293</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.53333333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.26821255</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5106383</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.1191266</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.50510204</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.11477474</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.50357143</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.34362539</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.25932598</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.52777778</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.10269184</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.50833333</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.03659355</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.51666667</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.4279041</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.51388889</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.24397776</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.24239363</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.50207469</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.50187266</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.22918214</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5217391300000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.3963324</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.50806452</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.03521185</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.52083333</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.09556619</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.19331765</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.50980392</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.11968392</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.50526316</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.13473889</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.50344828</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.07979967</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5147058799999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.39592268</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.50714286</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.1612399</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.50347222</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.06195742</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.51282051</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.05108715</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.08412032</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5053191500000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.12306749</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.50793651</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.16150699</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.53571429</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.04275668</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.51111111</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.27211782</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.53333333</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.44072535</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.40407535</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.58333333</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.23160665</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.53846154</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.45379661</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.52777778</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.18369173</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.57142857</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.32718266</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.52380952</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.20941368</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.14036652</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5060975599999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.13170313</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.50649351</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.12245768</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.51162791</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.15417172</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5147058799999999</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.20959571</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.51785714</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.16344047</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.50806452</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.16154664</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.27148317</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.04816996</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.51612903</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.22105616</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5106383</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.06759348</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.51315789</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.16563536</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.53571429</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.0796819</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.10674325</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.51785714</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.34243045</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.50164474</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.29406779</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5046296300000001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.12755715</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.52777778</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.30767858</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.51162791</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.3144054</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.5555555599999999</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.28459609</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.54166667</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.21128465</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.54545455</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.13114033</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.53333333</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.60163433</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.29690653</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.54545455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>A_pre</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>A_rec</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.38743895</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5147058799999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.07481889</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.57142857</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.16872554</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.51162791</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.093297</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5555555599999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.09794911000000001</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.50381679</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.14618655</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.52083333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.13016297</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.51785714</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.03041966</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.52272727</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1302534</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.36814191</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.49138606</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.52272727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.27119267</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.57142857</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.20223066</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.52083333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.07609324000000001</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.50909091</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.22947914</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.50480769</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.26476864</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.50277778</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.06496782</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.50909091</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.21477892</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.52380952</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.04919373</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.52272727</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.50295546</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.51086957</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.14599654</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.21690162</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.50714286</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.08436679</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.51428571</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.07267229</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.51612903</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.07572321</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.50980392</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.39145217</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.51515152</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.19511298</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.54545455</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.18502923</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.50980392</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.12505367</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.51136364</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.2579348</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.2841522</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.50862069</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.12801812</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.51666667</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.04934723</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.50877193</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.18954169</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.51282051</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.03186636</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.53571429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.24089702</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5555555599999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.19431195</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.50510204</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.06073479</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.50943396</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.12636824</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.50308642</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.17509763</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.50342466</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.41859293</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.53333333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.26821255</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5106383</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.1191266</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.50510204</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.11477474</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.50357143</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.34362539</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.25932598</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.52777778</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.10269184</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.50833333</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.03659355</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.51666667</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.4279041</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.51388889</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.24397776</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.24239363</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.50207469</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.50187266</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.22918214</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5217391300000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.3963324</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.50806452</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.03521185</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.52083333</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.09556619</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.19331765</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.50980392</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.11968392</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.50526316</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.13473889</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.50344828</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.07979967</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5147058799999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.39592268</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.50714286</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.1612399</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.50347222</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.06195742</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.51282051</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.05108715</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.08412032</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5053191500000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.12306749</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.50793651</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.16150699</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.53571429</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.04275668</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.51111111</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.27211782</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.53333333</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.44072535</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.40407535</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.58333333</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.23160665</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.53846154</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.45379661</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.52777778</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.18369173</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.57142857</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.32718266</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.52380952</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.20941368</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.14036652</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5060975599999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.13170313</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.50649351</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.12245768</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.51162791</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.15417172</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5147058799999999</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.20959571</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.51785714</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.16344047</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.50806452</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.16154664</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.27148317</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.04816996</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.51612903</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.22105616</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5106383</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.06759348</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.51315789</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.16563536</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.53571429</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.0796819</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.52941176</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.10674325</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.51785714</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.34243045</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.50164474</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.29406779</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5046296300000001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.12755715</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.52777778</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.30767858</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.51162791</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.3144054</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.5555555599999999</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.28459609</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.54166667</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.21128465</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.54545455</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.13114033</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.53333333</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.60163433</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.29690653</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.54545455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>